--- a/downloaded_files/STRS205_Tutorial-35103.xlsx
+++ b/downloaded_files/STRS205_Tutorial-35103.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>AHMED SOLTAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1220230</x:t>
@@ -227,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +518,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -537,7 +528,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.940625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.610625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -714,7 +705,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.9553751505</x:v>
+        <x:v>45907.415378588</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -746,7 +737,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.415378588</x:v>
+        <x:v>45909.4153425579</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -778,7 +769,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4153425579</x:v>
+        <x:v>45907.8202620718</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -810,7 +801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.8202620718</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -842,7 +833,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45907.6894532407</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -859,38 +850,6 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45907.6894532407</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
